--- a/Plant Data/LeafyVeggieRGB.xlsx
+++ b/Plant Data/LeafyVeggieRGB.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\Plant Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1ECB00-C833-4A08-8328-09FB75CA344C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7170" yWindow="255" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,40 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+  <si>
+    <t>PLANT NAME</t>
+  </si>
+  <si>
+    <t>PLANT IMAGE</t>
+  </si>
+  <si>
+    <t>AVERAGE HYDRATED COLOR</t>
+  </si>
+  <si>
+    <t>AVERAGE DEHYDRATED COLOR</t>
+  </si>
+  <si>
+    <t>RGB CODE</t>
+  </si>
+  <si>
+    <t>DISTANCE USED</t>
+  </si>
+  <si>
+    <t>HYDRATED</t>
+  </si>
+  <si>
+    <t>DEHYDRATED</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +67,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -45,12 +89,390 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +752,1622 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T62" sqref="T62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16" width="9.140625" style="10"/>
+    <col min="17" max="17" width="17.42578125" style="10" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="22"/>
+      <c r="S3" s="15"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="24"/>
+    </row>
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="13"/>
+    </row>
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="24"/>
+    </row>
+    <row r="9" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
+    </row>
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="22"/>
+      <c r="S10" s="15"/>
+    </row>
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="24"/>
+    </row>
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="13"/>
+    </row>
+    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="26"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="24"/>
+    </row>
+    <row r="16" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="28"/>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R17" s="22"/>
+      <c r="S17" s="15"/>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="24"/>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="25"/>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="13"/>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="26"/>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="24"/>
+    </row>
+    <row r="23" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R24" s="22"/>
+      <c r="S24" s="15"/>
+    </row>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="24"/>
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R28" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S28" s="26"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="24"/>
+    </row>
+    <row r="30" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="28"/>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R31" s="22"/>
+      <c r="S31" s="15"/>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="24"/>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="25"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="13"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R35" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="26"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="24"/>
+    </row>
+    <row r="37" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="28"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R38" s="22"/>
+      <c r="S38" s="15"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="24"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="25"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="13"/>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R42" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S42" s="26"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="6"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="24"/>
+    </row>
+    <row r="44" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="28"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R45" s="22"/>
+      <c r="S45" s="15"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="18"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="24"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="25"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12"/>
+      <c r="S48" s="13"/>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="18"/>
+      <c r="Q49" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R49" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="26"/>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="6"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="23"/>
+      <c r="S50" s="24"/>
+    </row>
+    <row r="51" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="28"/>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R52" s="22"/>
+      <c r="S52" s="15"/>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="24"/>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="25"/>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="13"/>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R56" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S56" s="26"/>
+    </row>
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="18"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="24"/>
+    </row>
+    <row r="58" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="28"/>
+    </row>
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R59" s="22"/>
+      <c r="S59" s="15"/>
+    </row>
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B60" s="6"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="24"/>
+    </row>
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="25"/>
+    </row>
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="13"/>
+    </row>
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R63" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S63" s="26"/>
+    </row>
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="24"/>
+    </row>
+    <row r="65" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="14"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="27"/>
+      <c r="S65" s="28"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R66" s="22"/>
+      <c r="S66" s="15"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="18"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="24"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="6"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="25"/>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="13"/>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="18"/>
+      <c r="Q70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R70" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="S70" s="26"/>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="18"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="24"/>
+    </row>
+    <row r="72" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="8"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="27"/>
+      <c r="S72" s="28"/>
+    </row>
+  </sheetData>
+  <mergeCells count="106">
+    <mergeCell ref="R66:S68"/>
+    <mergeCell ref="N70:P71"/>
+    <mergeCell ref="Q70:Q72"/>
+    <mergeCell ref="R70:S72"/>
+    <mergeCell ref="R59:S61"/>
+    <mergeCell ref="N63:P64"/>
+    <mergeCell ref="Q63:Q65"/>
+    <mergeCell ref="R63:S65"/>
+    <mergeCell ref="B66:D72"/>
+    <mergeCell ref="E66:G72"/>
+    <mergeCell ref="H66:J72"/>
+    <mergeCell ref="K66:M72"/>
+    <mergeCell ref="N66:P67"/>
+    <mergeCell ref="Q66:Q68"/>
+    <mergeCell ref="R52:S54"/>
+    <mergeCell ref="N56:P57"/>
+    <mergeCell ref="Q56:Q58"/>
+    <mergeCell ref="R56:S58"/>
+    <mergeCell ref="B59:D65"/>
+    <mergeCell ref="E59:G65"/>
+    <mergeCell ref="H59:J65"/>
+    <mergeCell ref="K59:M65"/>
+    <mergeCell ref="N59:P60"/>
+    <mergeCell ref="Q59:Q61"/>
+    <mergeCell ref="R45:S47"/>
+    <mergeCell ref="N49:P50"/>
+    <mergeCell ref="Q49:Q51"/>
+    <mergeCell ref="R49:S51"/>
+    <mergeCell ref="B52:D58"/>
+    <mergeCell ref="E52:G58"/>
+    <mergeCell ref="H52:J58"/>
+    <mergeCell ref="K52:M58"/>
+    <mergeCell ref="N52:P53"/>
+    <mergeCell ref="Q52:Q54"/>
+    <mergeCell ref="R38:S40"/>
+    <mergeCell ref="N42:P43"/>
+    <mergeCell ref="Q42:Q44"/>
+    <mergeCell ref="R42:S44"/>
+    <mergeCell ref="B45:D51"/>
+    <mergeCell ref="E45:G51"/>
+    <mergeCell ref="H45:J51"/>
+    <mergeCell ref="K45:M51"/>
+    <mergeCell ref="N45:P46"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="R31:S33"/>
+    <mergeCell ref="N35:P36"/>
+    <mergeCell ref="Q35:Q37"/>
+    <mergeCell ref="R35:S37"/>
+    <mergeCell ref="B38:D44"/>
+    <mergeCell ref="E38:G44"/>
+    <mergeCell ref="H38:J44"/>
+    <mergeCell ref="K38:M44"/>
+    <mergeCell ref="N38:P39"/>
+    <mergeCell ref="Q38:Q40"/>
+    <mergeCell ref="R24:S26"/>
+    <mergeCell ref="N28:P29"/>
+    <mergeCell ref="Q28:Q30"/>
+    <mergeCell ref="R28:S30"/>
+    <mergeCell ref="B31:D37"/>
+    <mergeCell ref="E31:G37"/>
+    <mergeCell ref="H31:J37"/>
+    <mergeCell ref="K31:M37"/>
+    <mergeCell ref="N31:P32"/>
+    <mergeCell ref="Q31:Q33"/>
+    <mergeCell ref="R17:S19"/>
+    <mergeCell ref="N21:P22"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="R21:S23"/>
+    <mergeCell ref="B24:D30"/>
+    <mergeCell ref="E24:G30"/>
+    <mergeCell ref="H24:J30"/>
+    <mergeCell ref="K24:M30"/>
+    <mergeCell ref="N24:P25"/>
+    <mergeCell ref="Q24:Q26"/>
+    <mergeCell ref="R10:S12"/>
+    <mergeCell ref="N14:P15"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="R14:S16"/>
+    <mergeCell ref="B17:D23"/>
+    <mergeCell ref="E17:G23"/>
+    <mergeCell ref="H17:J23"/>
+    <mergeCell ref="K17:M23"/>
+    <mergeCell ref="N17:P18"/>
+    <mergeCell ref="Q17:Q19"/>
+    <mergeCell ref="B10:D16"/>
+    <mergeCell ref="E10:G16"/>
+    <mergeCell ref="H10:J16"/>
+    <mergeCell ref="K10:M16"/>
+    <mergeCell ref="N10:P11"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="Q3:Q5"/>
+    <mergeCell ref="Q7:Q9"/>
+    <mergeCell ref="R3:S5"/>
+    <mergeCell ref="R7:S9"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="K3:M9"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="N3:P4"/>
+    <mergeCell ref="N7:P8"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D9"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G9"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="H3:J9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Plant Data/LeafyVeggieRGB.xlsx
+++ b/Plant Data/LeafyVeggieRGB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\Plant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DABF1C5-207F-48FB-B721-7A1B387AE62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14344617-438D-4545-A870-89420D2C4854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10485" yWindow="4245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
   <si>
     <t>PLANT NAME</t>
   </si>
@@ -54,7 +54,28 @@
     <t>-----</t>
   </si>
   <si>
-    <t>CABBAGE</t>
+    <t>SPINACH LEAF</t>
+  </si>
+  <si>
+    <t>SPINACH STEM</t>
+  </si>
+  <si>
+    <t>CELERY LEAF</t>
+  </si>
+  <si>
+    <t>CELERY STEM</t>
+  </si>
+  <si>
+    <t>CABBAGE LEAF</t>
+  </si>
+  <si>
+    <t>BROCCOLI LEAF</t>
+  </si>
+  <si>
+    <t>KANGKONG LEAF</t>
+  </si>
+  <si>
+    <t>KANGKONG STEM</t>
   </si>
 </sst>
 </file>
@@ -637,6 +658,706 @@
         <a:xfrm>
           <a:off x="6353175" y="409575"/>
           <a:ext cx="1314450" cy="1346069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>366575</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2B3C79-C294-B7AC-E675-36EA354C7AF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="1724025"/>
+          <a:ext cx="1357175" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>357584</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125C060C-C999-60A9-0B3B-5DBE3ED7D271}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="1752601"/>
+          <a:ext cx="1319609" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>380294</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A055ED0-D2DC-7466-5CEA-78D27472D4E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="3086100"/>
+          <a:ext cx="1380419" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>364735</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F589BD6-0048-7200-8D64-C85F9CD94902}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="3076575"/>
+          <a:ext cx="1307710" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>176549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B29DA6-05CC-EC1B-0FC5-A317BE965F64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="4438650"/>
+          <a:ext cx="1314450" cy="1310024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>13374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{412B3C90-D72D-4A96-31D2-65CCC1537940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="4448176"/>
+          <a:ext cx="1323975" cy="1337348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374090</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A542AA-3357-7651-8020-86FC0BE2003A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4562475" y="5772150"/>
+          <a:ext cx="1298015" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>344756</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187685C9-078F-DF5C-880D-6C420109C6B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="5781675"/>
+          <a:ext cx="1306781" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>375241</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750D974C-E14B-EC2A-5689-91AC140815A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6343650" y="7124701"/>
+          <a:ext cx="1346791" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>376642</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689CE72A-F584-55AF-0400-242156D9C50C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="7105651"/>
+          <a:ext cx="1329142" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361951</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305E0BE5-9873-29E2-0C0C-F2BD38CAE073}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533901" y="8465298"/>
+          <a:ext cx="1314450" cy="1335927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED41CDF5-3BFD-FE76-EF24-AD53DBD69E09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6372225" y="8477250"/>
+          <a:ext cx="1304925" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>379258</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A78E30F-ADD4-0A4F-F14D-192800CE5F69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353176" y="9829800"/>
+          <a:ext cx="1341282" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>383726</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A311478-7D06-A2E9-A5BC-BE793E3C7726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="9801225"/>
+          <a:ext cx="1345751" cy="1323975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,8 +1634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:S5"/>
+    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
+      <selection activeCell="Y52" sqref="Y52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,7 +1680,7 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -1124,7 +1845,9 @@
       <c r="S9" s="21"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+      <c r="B10" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -1136,13 +1859,17 @@
       <c r="K10" s="23"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
+      <c r="N10" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="O10" s="23"/>
       <c r="P10" s="13"/>
       <c r="Q10" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R10" s="9"/>
+      <c r="R10" s="9">
+        <v>2002</v>
+      </c>
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
@@ -1178,9 +1905,15 @@
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="6"/>
+      <c r="N12" s="2">
+        <v>87</v>
+      </c>
+      <c r="O12" s="2">
+        <v>140</v>
+      </c>
+      <c r="P12" s="6">
+        <v>30</v>
+      </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="13"/>
       <c r="S12" s="14"/>
@@ -1218,7 +1951,9 @@
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O14" s="15"/>
       <c r="P14" s="16"/>
       <c r="Q14" s="15" t="s">
@@ -1262,15 +1997,23 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="8"/>
+      <c r="N16" s="5">
+        <v>83</v>
+      </c>
+      <c r="O16" s="5">
+        <v>108</v>
+      </c>
+      <c r="P16" s="8">
+        <v>54</v>
+      </c>
       <c r="Q16" s="17"/>
       <c r="R16" s="20"/>
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
+      <c r="B17" s="22" t="s">
+        <v>10</v>
+      </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
@@ -1282,13 +2025,17 @@
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
+      <c r="N17" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="O17" s="23"/>
       <c r="P17" s="13"/>
       <c r="Q17" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="9"/>
+      <c r="R17" s="9">
+        <v>10351</v>
+      </c>
       <c r="S17" s="10"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
@@ -1324,9 +2071,15 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="6"/>
+      <c r="N19" s="2">
+        <v>110</v>
+      </c>
+      <c r="O19" s="2">
+        <v>139</v>
+      </c>
+      <c r="P19" s="6">
+        <v>11</v>
+      </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="13"/>
       <c r="S19" s="14"/>
@@ -1364,7 +2117,9 @@
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
+      <c r="N21" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O21" s="15"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="15" t="s">
@@ -1408,15 +2163,23 @@
       <c r="K23" s="17"/>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="8"/>
+      <c r="N23" s="5">
+        <v>133</v>
+      </c>
+      <c r="O23" s="5">
+        <v>153</v>
+      </c>
+      <c r="P23" s="8">
+        <v>95</v>
+      </c>
       <c r="Q23" s="17"/>
       <c r="R23" s="20"/>
       <c r="S23" s="21"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B24" s="22"/>
+      <c r="B24" s="22" t="s">
+        <v>11</v>
+      </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="23"/>
@@ -1428,13 +2191,17 @@
       <c r="K24" s="23"/>
       <c r="L24" s="23"/>
       <c r="M24" s="23"/>
-      <c r="N24" s="23"/>
+      <c r="N24" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="O24" s="23"/>
       <c r="P24" s="13"/>
       <c r="Q24" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R24" s="9"/>
+      <c r="R24" s="9">
+        <v>8036</v>
+      </c>
       <c r="S24" s="10"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
@@ -1470,9 +2237,15 @@
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="6"/>
+      <c r="N26" s="2">
+        <v>94</v>
+      </c>
+      <c r="O26" s="2">
+        <v>159</v>
+      </c>
+      <c r="P26" s="6">
+        <v>31</v>
+      </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="13"/>
       <c r="S26" s="14"/>
@@ -1510,7 +2283,9 @@
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
+      <c r="N28" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O28" s="15"/>
       <c r="P28" s="16"/>
       <c r="Q28" s="15" t="s">
@@ -1554,15 +2329,23 @@
       <c r="K30" s="17"/>
       <c r="L30" s="17"/>
       <c r="M30" s="17"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="8"/>
+      <c r="N30" s="5">
+        <v>157</v>
+      </c>
+      <c r="O30" s="5">
+        <v>155</v>
+      </c>
+      <c r="P30" s="8">
+        <v>33</v>
+      </c>
       <c r="Q30" s="17"/>
       <c r="R30" s="20"/>
       <c r="S30" s="21"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
+      <c r="B31" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -1574,13 +2357,17 @@
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
       <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
+      <c r="N31" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="O31" s="23"/>
       <c r="P31" s="13"/>
       <c r="Q31" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R31" s="9"/>
+      <c r="R31" s="9">
+        <v>7123</v>
+      </c>
       <c r="S31" s="10"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
@@ -1616,9 +2403,15 @@
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="6"/>
+      <c r="N33" s="2">
+        <v>167</v>
+      </c>
+      <c r="O33" s="2">
+        <v>202</v>
+      </c>
+      <c r="P33" s="6">
+        <v>28</v>
+      </c>
       <c r="Q33" s="15"/>
       <c r="R33" s="13"/>
       <c r="S33" s="14"/>
@@ -1656,7 +2449,9 @@
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
       <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="N35" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O35" s="15"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="15" t="s">
@@ -1700,15 +2495,23 @@
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="8"/>
+      <c r="N37" s="5">
+        <v>149</v>
+      </c>
+      <c r="O37" s="5">
+        <v>137</v>
+      </c>
+      <c r="P37" s="8">
+        <v>70</v>
+      </c>
       <c r="Q37" s="17"/>
       <c r="R37" s="20"/>
       <c r="S37" s="21"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
+      <c r="B38" s="22" t="s">
+        <v>14</v>
+      </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
@@ -1720,13 +2523,17 @@
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
+      <c r="N38" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="O38" s="23"/>
       <c r="P38" s="13"/>
       <c r="Q38" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R38" s="9"/>
+      <c r="R38" s="9">
+        <v>6835</v>
+      </c>
       <c r="S38" s="10"/>
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
@@ -1762,9 +2569,15 @@
       <c r="K40" s="15"/>
       <c r="L40" s="15"/>
       <c r="M40" s="15"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="6"/>
+      <c r="N40" s="2">
+        <v>89</v>
+      </c>
+      <c r="O40" s="2">
+        <v>123</v>
+      </c>
+      <c r="P40" s="6">
+        <v>66</v>
+      </c>
       <c r="Q40" s="15"/>
       <c r="R40" s="13"/>
       <c r="S40" s="14"/>
@@ -1802,7 +2615,9 @@
       <c r="K42" s="15"/>
       <c r="L42" s="15"/>
       <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
+      <c r="N42" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O42" s="15"/>
       <c r="P42" s="16"/>
       <c r="Q42" s="15" t="s">
@@ -1846,15 +2661,23 @@
       <c r="K44" s="17"/>
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="8"/>
+      <c r="N44" s="5">
+        <v>122</v>
+      </c>
+      <c r="O44" s="5">
+        <v>135</v>
+      </c>
+      <c r="P44" s="8">
+        <v>123</v>
+      </c>
       <c r="Q44" s="17"/>
       <c r="R44" s="20"/>
       <c r="S44" s="21"/>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B45" s="22"/>
+      <c r="B45" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -1866,13 +2689,17 @@
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
+      <c r="N45" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="O45" s="23"/>
       <c r="P45" s="13"/>
       <c r="Q45" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R45" s="9"/>
+      <c r="R45" s="9">
+        <v>4212</v>
+      </c>
       <c r="S45" s="10"/>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
@@ -1908,9 +2735,15 @@
       <c r="K47" s="15"/>
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="6"/>
+      <c r="N47" s="2">
+        <v>81</v>
+      </c>
+      <c r="O47" s="2">
+        <v>138</v>
+      </c>
+      <c r="P47" s="6">
+        <v>31</v>
+      </c>
       <c r="Q47" s="15"/>
       <c r="R47" s="13"/>
       <c r="S47" s="14"/>
@@ -1948,7 +2781,9 @@
       <c r="K49" s="15"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
+      <c r="N49" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O49" s="15"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="15" t="s">
@@ -1992,15 +2827,23 @@
       <c r="K51" s="17"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="8"/>
+      <c r="N51" s="5">
+        <v>62</v>
+      </c>
+      <c r="O51" s="5">
+        <v>111</v>
+      </c>
+      <c r="P51" s="8">
+        <v>89</v>
+      </c>
       <c r="Q51" s="17"/>
       <c r="R51" s="20"/>
       <c r="S51" s="21"/>
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B52" s="22"/>
+      <c r="B52" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
@@ -2012,13 +2855,17 @@
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
+      <c r="N52" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="O52" s="23"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="9">
+        <v>4878</v>
+      </c>
       <c r="S52" s="10"/>
     </row>
     <row r="53" spans="2:19" x14ac:dyDescent="0.25">
@@ -2054,9 +2901,15 @@
       <c r="K54" s="15"/>
       <c r="L54" s="15"/>
       <c r="M54" s="15"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="6"/>
+      <c r="N54" s="2">
+        <v>122</v>
+      </c>
+      <c r="O54" s="2">
+        <v>162</v>
+      </c>
+      <c r="P54" s="6">
+        <v>68</v>
+      </c>
       <c r="Q54" s="15"/>
       <c r="R54" s="13"/>
       <c r="S54" s="14"/>
@@ -2094,7 +2947,9 @@
       <c r="K56" s="15"/>
       <c r="L56" s="15"/>
       <c r="M56" s="15"/>
-      <c r="N56" s="15"/>
+      <c r="N56" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O56" s="15"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="15" t="s">
@@ -2138,9 +2993,15 @@
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="8"/>
+      <c r="N58" s="5">
+        <v>85</v>
+      </c>
+      <c r="O58" s="5">
+        <v>99</v>
+      </c>
+      <c r="P58" s="8">
+        <v>39</v>
+      </c>
       <c r="Q58" s="17"/>
       <c r="R58" s="20"/>
       <c r="S58" s="21"/>
@@ -2158,7 +3019,9 @@
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
+      <c r="N59" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="O59" s="23"/>
       <c r="P59" s="13"/>
       <c r="Q59" s="23" t="s">
@@ -2240,7 +3103,9 @@
       <c r="K63" s="15"/>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
+      <c r="N63" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O63" s="15"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="15" t="s">
@@ -2304,7 +3169,9 @@
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
       <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
+      <c r="N66" s="23" t="s">
+        <v>6</v>
+      </c>
       <c r="O66" s="23"/>
       <c r="P66" s="13"/>
       <c r="Q66" s="23" t="s">
@@ -2386,7 +3253,9 @@
       <c r="K70" s="15"/>
       <c r="L70" s="15"/>
       <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
+      <c r="N70" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="O70" s="15"/>
       <c r="P70" s="16"/>
       <c r="Q70" s="15" t="s">

--- a/Plant Data/LeafyVeggieRGB.xlsx
+++ b/Plant Data/LeafyVeggieRGB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\research\Plant Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14344617-438D-4545-A870-89420D2C4854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEDFEC4E-D6D3-45EE-8BB4-80527E42683A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="30" windowWidth="17580" windowHeight="15510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="21">
   <si>
     <t>PLANT NAME</t>
   </si>
@@ -51,9 +51,6 @@
     <t>DEHYDRATED</t>
   </si>
   <si>
-    <t>-----</t>
-  </si>
-  <si>
     <t>SPINACH LEAF</t>
   </si>
   <si>
@@ -69,13 +66,28 @@
     <t>CABBAGE LEAF</t>
   </si>
   <si>
-    <t>BROCCOLI LEAF</t>
-  </si>
-  <si>
     <t>KANGKONG LEAF</t>
   </si>
   <si>
     <t>KANGKONG STEM</t>
+  </si>
+  <si>
+    <t>MINT</t>
+  </si>
+  <si>
+    <t>MONSTERA</t>
+  </si>
+  <si>
+    <t>PARSLEY</t>
+  </si>
+  <si>
+    <t>SPRING ONION</t>
+  </si>
+  <si>
+    <t>RUBBER TREE</t>
+  </si>
+  <si>
+    <t>BROCCOLI</t>
   </si>
 </sst>
 </file>
@@ -1358,6 +1370,1106 @@
         <a:xfrm>
           <a:off x="4524375" y="9801225"/>
           <a:ext cx="1345751" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>196519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Picture 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{817E91E6-C127-B7A3-407D-B0FCFF6E34A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6362701" y="11163300"/>
+          <a:ext cx="1333500" cy="1320469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>376657</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Picture 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E551957F-1FE8-E4DC-2126-AF3391F115BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="11163301"/>
+          <a:ext cx="1329157" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>249996</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>401085</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Picture 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1699F7E3-D060-A3E8-92FA-F469BC0580BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6345996" y="12468226"/>
+          <a:ext cx="1370289" cy="1352550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>275678</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371883</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF41BD1-817B-0FE8-31C5-7B0C0FD529EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4542878" y="12496800"/>
+          <a:ext cx="1315405" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CDE557-FA7C-1046-1122-34958A832024}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6353175" y="13839825"/>
+          <a:ext cx="1343025" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>370457</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA5C0E2A-F309-0B72-F0A2-AE7B67C14224}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="13839825"/>
+          <a:ext cx="1322957" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>286160</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390935</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="Picture 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56C127A3-C77A-591E-FF07-E12CC7CAAD27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6382160" y="15173325"/>
+          <a:ext cx="1323975" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>376682</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEDD5FE7-4394-BDCE-A40D-8D25D2F0E016}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4524375" y="15173325"/>
+          <a:ext cx="1338707" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>185233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{141EE3E1-5C92-8302-A413-4C7497926A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4505325" y="16516351"/>
+          <a:ext cx="1323975" cy="1328232"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>183987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4A942B-83C9-C576-0363-F49D0E56A302}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="16535401"/>
+          <a:ext cx="1295400" cy="1307936"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>230111</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F963D98D-5DE1-7E11-3544-1B22DEBDCFDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933701" y="16402050"/>
+          <a:ext cx="954010" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>315733</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>67523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CECC5653-1602-D021-03FA-7F4501ED35D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="15011400"/>
+          <a:ext cx="1230133" cy="1572473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C27970A-C0DF-67CA-947C-B32ED04F7594}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="12611100"/>
+          <a:ext cx="1800225" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDDF03A9-D693-1DFD-C554-E4915351F726}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2543175" y="13906500"/>
+          <a:ext cx="1625600" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523305</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>85946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4664E73-EDE7-6826-BA91-3A5A100B7761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2609850" y="11182350"/>
+          <a:ext cx="1571055" cy="1190846"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="Picture 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52044740-B669-2724-784B-75B23AE06358}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="9839324"/>
+          <a:ext cx="1266825" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>521181</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>124128</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="Picture 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48706A2D-D2B3-11C1-AFC4-BDDDC289E01A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514601" y="8534399"/>
+          <a:ext cx="1664180" cy="1190929"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>456209</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="Picture 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1CA3AE-168E-09F8-DE27-F36E8000BA75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2571750" y="7105649"/>
+          <a:ext cx="1542059" cy="1352807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="Picture 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B89CC7B4-CC6F-A6C6-5380-0BBF3922C308}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2686051" y="5772150"/>
+          <a:ext cx="1295400" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47753</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Picture 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFD2DD1-5CF8-2C28-4DC7-B1BB5401201E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790825" y="4457700"/>
+          <a:ext cx="914528" cy="1286054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133170</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="Picture 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14E2FD40-2E3A-F733-5341-DD64F82F358A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2771774" y="3175955"/>
+          <a:ext cx="1076325" cy="1186315"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>420752</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190106</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Picture 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9775A0EC-905F-29B0-8A84-E10553F9E700}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2590800" y="1704974"/>
+          <a:ext cx="1487552" cy="1371207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,10 +2744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S72"/>
+  <dimension ref="B1:S93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G25" workbookViewId="0">
-      <selection activeCell="Y52" sqref="Y52"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1680,7 +2792,7 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
@@ -1793,8 +2905,8 @@
       <c r="Q7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="18" t="s">
-        <v>8</v>
+      <c r="R7" s="18">
+        <v>0</v>
       </c>
       <c r="S7" s="19"/>
     </row>
@@ -1846,7 +2958,7 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
@@ -1959,8 +3071,8 @@
       <c r="Q14" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="18" t="s">
-        <v>8</v>
+      <c r="R14" s="18">
+        <v>0</v>
       </c>
       <c r="S14" s="19"/>
     </row>
@@ -2012,7 +3124,7 @@
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="23"/>
@@ -2125,8 +3237,8 @@
       <c r="Q21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="18" t="s">
-        <v>8</v>
+      <c r="R21" s="18">
+        <v>0</v>
       </c>
       <c r="S21" s="19"/>
     </row>
@@ -2178,7 +3290,7 @@
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
@@ -2291,8 +3403,8 @@
       <c r="Q28" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R28" s="18" t="s">
-        <v>8</v>
+      <c r="R28" s="18">
+        <v>0</v>
       </c>
       <c r="S28" s="19"/>
     </row>
@@ -2344,7 +3456,7 @@
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
@@ -2457,8 +3569,8 @@
       <c r="Q35" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R35" s="18" t="s">
-        <v>8</v>
+      <c r="R35" s="18">
+        <v>0</v>
       </c>
       <c r="S35" s="19"/>
     </row>
@@ -2510,7 +3622,7 @@
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" s="22" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -2623,8 +3735,8 @@
       <c r="Q42" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R42" s="18" t="s">
-        <v>8</v>
+      <c r="R42" s="18">
+        <v>0</v>
       </c>
       <c r="S42" s="19"/>
     </row>
@@ -2676,7 +3788,7 @@
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45" s="22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
@@ -2789,8 +3901,8 @@
       <c r="Q49" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R49" s="18" t="s">
-        <v>8</v>
+      <c r="R49" s="18">
+        <v>0</v>
       </c>
       <c r="S49" s="19"/>
     </row>
@@ -2842,7 +3954,7 @@
     </row>
     <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C52" s="23"/>
       <c r="D52" s="23"/>
@@ -2955,8 +4067,8 @@
       <c r="Q56" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R56" s="18" t="s">
-        <v>8</v>
+      <c r="R56" s="18">
+        <v>0</v>
       </c>
       <c r="S56" s="19"/>
     </row>
@@ -3007,7 +4119,9 @@
       <c r="S58" s="21"/>
     </row>
     <row r="59" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B59" s="22"/>
+      <c r="B59" s="22" t="s">
+        <v>15</v>
+      </c>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
@@ -3027,7 +4141,9 @@
       <c r="Q59" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R59" s="9"/>
+      <c r="R59" s="9">
+        <v>3423</v>
+      </c>
       <c r="S59" s="10"/>
     </row>
     <row r="60" spans="2:19" x14ac:dyDescent="0.25">
@@ -3063,9 +4179,15 @@
       <c r="K61" s="15"/>
       <c r="L61" s="15"/>
       <c r="M61" s="15"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="6"/>
+      <c r="N61" s="2">
+        <v>107</v>
+      </c>
+      <c r="O61" s="2">
+        <v>176</v>
+      </c>
+      <c r="P61" s="6">
+        <v>60</v>
+      </c>
       <c r="Q61" s="15"/>
       <c r="R61" s="13"/>
       <c r="S61" s="14"/>
@@ -3111,8 +4233,8 @@
       <c r="Q63" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R63" s="18" t="s">
-        <v>8</v>
+      <c r="R63" s="18">
+        <v>0</v>
       </c>
       <c r="S63" s="19"/>
     </row>
@@ -3149,15 +4271,23 @@
       <c r="K65" s="17"/>
       <c r="L65" s="17"/>
       <c r="M65" s="17"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="8"/>
+      <c r="N65" s="5">
+        <v>133</v>
+      </c>
+      <c r="O65" s="5">
+        <v>148</v>
+      </c>
+      <c r="P65" s="8">
+        <v>71</v>
+      </c>
       <c r="Q65" s="17"/>
       <c r="R65" s="20"/>
       <c r="S65" s="21"/>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B66" s="22"/>
+      <c r="B66" s="22" t="s">
+        <v>16</v>
+      </c>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -3177,7 +4307,9 @@
       <c r="Q66" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R66" s="9"/>
+      <c r="R66" s="9">
+        <v>7957</v>
+      </c>
       <c r="S66" s="10"/>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.25">
@@ -3213,9 +4345,15 @@
       <c r="K68" s="15"/>
       <c r="L68" s="15"/>
       <c r="M68" s="15"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="6"/>
+      <c r="N68" s="2">
+        <v>61</v>
+      </c>
+      <c r="O68" s="2">
+        <v>102</v>
+      </c>
+      <c r="P68" s="6">
+        <v>30</v>
+      </c>
       <c r="Q68" s="15"/>
       <c r="R68" s="13"/>
       <c r="S68" s="14"/>
@@ -3261,8 +4399,8 @@
       <c r="Q70" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="R70" s="18" t="s">
-        <v>8</v>
+      <c r="R70" s="18">
+        <v>0</v>
       </c>
       <c r="S70" s="19"/>
     </row>
@@ -3299,21 +4437,555 @@
       <c r="K72" s="17"/>
       <c r="L72" s="17"/>
       <c r="M72" s="17"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="8"/>
+      <c r="N72" s="5">
+        <v>139</v>
+      </c>
+      <c r="O72" s="5">
+        <v>126</v>
+      </c>
+      <c r="P72" s="8">
+        <v>31</v>
+      </c>
       <c r="Q72" s="17"/>
       <c r="R72" s="20"/>
       <c r="S72" s="21"/>
     </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="23"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O73" s="23"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R73" s="9">
+        <v>4974</v>
+      </c>
+      <c r="S73" s="10"/>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" s="24"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="15"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="15"/>
+      <c r="P74" s="16"/>
+      <c r="Q74" s="15"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="12"/>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B75" s="24"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15"/>
+      <c r="K75" s="15"/>
+      <c r="L75" s="15"/>
+      <c r="M75" s="15"/>
+      <c r="N75" s="2">
+        <v>95</v>
+      </c>
+      <c r="O75" s="2">
+        <v>165</v>
+      </c>
+      <c r="P75" s="6">
+        <v>58</v>
+      </c>
+      <c r="Q75" s="15"/>
+      <c r="R75" s="13"/>
+      <c r="S75" s="14"/>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B76" s="24"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15"/>
+      <c r="K76" s="15"/>
+      <c r="L76" s="15"/>
+      <c r="M76" s="15"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B77" s="24"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O77" s="15"/>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R77" s="18">
+        <v>0</v>
+      </c>
+      <c r="S77" s="19"/>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B78" s="24"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="15"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="15"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="15"/>
+      <c r="R78" s="11"/>
+      <c r="S78" s="12"/>
+    </row>
+    <row r="79" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="25"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="5">
+        <v>136</v>
+      </c>
+      <c r="O79" s="5">
+        <v>181</v>
+      </c>
+      <c r="P79" s="8">
+        <v>47</v>
+      </c>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="20"/>
+      <c r="S79" s="21"/>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O80" s="23"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R80" s="9">
+        <v>599</v>
+      </c>
+      <c r="S80" s="10"/>
+    </row>
+    <row r="81" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B81" s="24"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15"/>
+      <c r="K81" s="15"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="15"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="15"/>
+      <c r="P81" s="16"/>
+      <c r="Q81" s="15"/>
+      <c r="R81" s="11"/>
+      <c r="S81" s="12"/>
+    </row>
+    <row r="82" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B82" s="24"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="2">
+        <v>72</v>
+      </c>
+      <c r="O82" s="2">
+        <v>131</v>
+      </c>
+      <c r="P82" s="6">
+        <v>36</v>
+      </c>
+      <c r="Q82" s="15"/>
+      <c r="R82" s="13"/>
+      <c r="S82" s="14"/>
+    </row>
+    <row r="83" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B83" s="24"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B84" s="24"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O84" s="15"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R84" s="18">
+        <v>0</v>
+      </c>
+      <c r="S84" s="19"/>
+    </row>
+    <row r="85" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B85" s="24"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="15"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="15"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="11"/>
+      <c r="S85" s="12"/>
+    </row>
+    <row r="86" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="25"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="5">
+        <v>77</v>
+      </c>
+      <c r="O86" s="5">
+        <v>88</v>
+      </c>
+      <c r="P86" s="8">
+        <v>42</v>
+      </c>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="20"/>
+      <c r="S86" s="21"/>
+    </row>
+    <row r="87" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="O87" s="23"/>
+      <c r="P87" s="13"/>
+      <c r="Q87" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="R87" s="9">
+        <v>3616</v>
+      </c>
+      <c r="S87" s="10"/>
+    </row>
+    <row r="88" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B88" s="24"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="16"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="11"/>
+      <c r="S88" s="12"/>
+    </row>
+    <row r="89" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B89" s="24"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="2">
+        <v>85</v>
+      </c>
+      <c r="O89" s="2">
+        <v>134</v>
+      </c>
+      <c r="P89" s="6">
+        <v>34</v>
+      </c>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="13"/>
+      <c r="S89" s="14"/>
+    </row>
+    <row r="90" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B90" s="24"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="4"/>
+    </row>
+    <row r="91" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B91" s="24"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="O91" s="15"/>
+      <c r="P91" s="16"/>
+      <c r="Q91" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R91" s="18">
+        <v>0</v>
+      </c>
+      <c r="S91" s="19"/>
+    </row>
+    <row r="92" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B92" s="24"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="16"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="11"/>
+      <c r="S92" s="12"/>
+    </row>
+    <row r="93" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="25"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="5">
+        <v>108</v>
+      </c>
+      <c r="O93" s="5">
+        <v>65</v>
+      </c>
+      <c r="P93" s="8">
+        <v>64</v>
+      </c>
+      <c r="Q93" s="17"/>
+      <c r="R93" s="20"/>
+      <c r="S93" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="106">
+  <mergeCells count="136">
+    <mergeCell ref="B87:D93"/>
+    <mergeCell ref="E87:G93"/>
+    <mergeCell ref="H87:J93"/>
+    <mergeCell ref="K87:M93"/>
+    <mergeCell ref="N87:P88"/>
+    <mergeCell ref="Q87:Q89"/>
+    <mergeCell ref="R87:S89"/>
+    <mergeCell ref="N91:P92"/>
+    <mergeCell ref="Q91:Q93"/>
+    <mergeCell ref="R91:S93"/>
+    <mergeCell ref="K73:M79"/>
+    <mergeCell ref="N73:P74"/>
+    <mergeCell ref="Q73:Q75"/>
+    <mergeCell ref="R73:S75"/>
+    <mergeCell ref="N77:P78"/>
+    <mergeCell ref="Q77:Q79"/>
+    <mergeCell ref="R77:S79"/>
+    <mergeCell ref="B80:D86"/>
+    <mergeCell ref="E80:G86"/>
+    <mergeCell ref="H80:J86"/>
+    <mergeCell ref="K80:M86"/>
+    <mergeCell ref="N80:P81"/>
+    <mergeCell ref="Q80:Q82"/>
+    <mergeCell ref="R80:S82"/>
+    <mergeCell ref="N84:P85"/>
+    <mergeCell ref="Q84:Q86"/>
+    <mergeCell ref="R84:S86"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D9"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G9"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="H3:J9"/>
+    <mergeCell ref="B73:D79"/>
+    <mergeCell ref="E73:G79"/>
+    <mergeCell ref="H73:J79"/>
     <mergeCell ref="Q2:S2"/>
     <mergeCell ref="Q3:Q5"/>
     <mergeCell ref="Q7:Q9"/>
